--- a/data/TTT.xlsx
+++ b/data/TTT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H113"/>
+  <dimension ref="A1:H111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,13 +475,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>789</v>
+        <v>795</v>
       </c>
       <c r="C2" t="n">
-        <v>4587274.175705946</v>
+        <v>3109931.63010461</v>
       </c>
       <c r="D2" t="n">
-        <v>468865867.7619483</v>
+        <v>317866501.2332584</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
@@ -493,13 +493,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>784</v>
+        <v>790</v>
       </c>
       <c r="C3" t="n">
-        <v>22587.24030071852</v>
+        <v>15302.3735703211</v>
       </c>
       <c r="D3" t="n">
-        <v>2308644.658745356</v>
+        <v>1564057.518267254</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
@@ -511,13 +511,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>779</v>
+        <v>785</v>
       </c>
       <c r="C4" t="n">
-        <v>3900.81586878819</v>
+        <v>2640.865485302275</v>
       </c>
       <c r="D4" t="n">
-        <v>398702.8782768343</v>
+        <v>269923.1918524423</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
@@ -529,13 +529,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>774</v>
+        <v>780</v>
       </c>
       <c r="C5" t="n">
-        <v>1349.733857213007</v>
+        <v>913.1241102504777</v>
       </c>
       <c r="D5" t="n">
-        <v>137956.4665136826</v>
+        <v>93330.52961916341</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
@@ -547,13 +547,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>769</v>
+        <v>775</v>
       </c>
       <c r="C6" t="n">
-        <v>636.0430393338193</v>
+        <v>429.9862446866726</v>
       </c>
       <c r="D6" t="n">
-        <v>65010.03867406827</v>
+        <v>43948.94789773332</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
@@ -565,13 +565,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>764</v>
+        <v>770</v>
       </c>
       <c r="C7" t="n">
-        <v>357.2943449999412</v>
+        <v>241.3659804020219</v>
       </c>
       <c r="D7" t="n">
-        <v>36519.09973073582</v>
+        <v>24670.04707256062</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
@@ -583,20 +583,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>759</v>
+        <v>765</v>
       </c>
       <c r="C8" t="n">
-        <v>224.870383812183</v>
+        <v>151.7956800644135</v>
       </c>
       <c r="D8" t="n">
-        <v>22984.03008009349</v>
-      </c>
-      <c r="E8" t="n">
-        <v>59125.92165903788</v>
-      </c>
-      <c r="F8" t="n">
-        <v>6043267.854514833</v>
-      </c>
+        <v>15515.05546209553</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
     </row>
@@ -605,19 +601,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>754</v>
+        <v>760</v>
       </c>
       <c r="C9" t="n">
-        <v>153.2689874262049</v>
+        <v>103.3841505420056</v>
       </c>
       <c r="D9" t="n">
-        <v>15665.64239198186</v>
+        <v>10566.9069691588</v>
       </c>
       <c r="E9" t="n">
-        <v>292.1552154954335</v>
+        <v>48118.6307118378</v>
       </c>
       <c r="F9" t="n">
-        <v>29861.22114956537</v>
+        <v>4918211.268841495</v>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
@@ -627,19 +623,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>749</v>
+        <v>755</v>
       </c>
       <c r="C10" t="n">
-        <v>110.8235277327965</v>
+        <v>74.69634764300422</v>
       </c>
       <c r="D10" t="n">
-        <v>11327.28664313629</v>
+        <v>7634.723043537208</v>
       </c>
       <c r="E10" t="n">
-        <v>50.63552350776168</v>
+        <v>237.7655777787484</v>
       </c>
       <c r="F10" t="n">
-        <v>5175.463196592912</v>
+        <v>24302.04946971541</v>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
@@ -649,19 +645,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>744</v>
+        <v>750</v>
       </c>
       <c r="C11" t="n">
-        <v>83.87126383979052</v>
+        <v>56.48633628594613</v>
       </c>
       <c r="D11" t="n">
-        <v>8572.492376582872</v>
+        <v>5773.47550309168</v>
       </c>
       <c r="E11" t="n">
-        <v>17.58409187909492</v>
+        <v>41.20886386551786</v>
       </c>
       <c r="F11" t="n">
-        <v>1797.272232246482</v>
+        <v>4211.963134472251</v>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
@@ -671,19 +667,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>739</v>
+        <v>745</v>
       </c>
       <c r="C12" t="n">
-        <v>65.82105783287129</v>
+        <v>44.29481645214434</v>
       </c>
       <c r="D12" t="n">
-        <v>6727.578560980448</v>
+        <v>4527.378734669766</v>
       </c>
       <c r="E12" t="n">
-        <v>8.316742625173918</v>
+        <v>14.31051558760535</v>
       </c>
       <c r="F12" t="n">
-        <v>850.0553048597449</v>
+        <v>1462.679589687028</v>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
@@ -693,19 +689,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>734</v>
+        <v>740</v>
       </c>
       <c r="C13" t="n">
-        <v>53.20957908405723</v>
+        <v>35.77919847999543</v>
       </c>
       <c r="D13" t="n">
-        <v>5438.557739282104</v>
+        <v>3656.996355699275</v>
       </c>
       <c r="E13" t="n">
-        <v>4.689335582666168</v>
+        <v>6.768440235298586</v>
       </c>
       <c r="F13" t="n">
-        <v>479.2975769440239</v>
+        <v>691.8031237646226</v>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
@@ -715,19 +711,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>729</v>
+        <v>735</v>
       </c>
       <c r="C14" t="n">
-        <v>44.08969257610283</v>
+        <v>29.62275144269335</v>
       </c>
       <c r="D14" t="n">
-        <v>4506.412997620901</v>
+        <v>3027.745133314927</v>
       </c>
       <c r="E14" t="n">
-        <v>2.962509591707436</v>
+        <v>3.816336402964172</v>
       </c>
       <c r="F14" t="n">
-        <v>302.7984762334906</v>
+        <v>390.0682214993051</v>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
@@ -737,19 +733,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>724</v>
+        <v>730</v>
       </c>
       <c r="C15" t="n">
-        <v>37.30491183305524</v>
+        <v>25.04358984285154</v>
       </c>
       <c r="D15" t="n">
-        <v>3812.939708513649</v>
+        <v>2559.708452947634</v>
       </c>
       <c r="E15" t="n">
-        <v>2.026975593397354</v>
+        <v>2.410988294536924</v>
       </c>
       <c r="F15" t="n">
-        <v>207.1774291503482</v>
+        <v>246.4274154068827</v>
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
@@ -759,19 +755,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>719</v>
+        <v>725</v>
       </c>
       <c r="C16" t="n">
-        <v>32.13639220130786</v>
+        <v>21.55581848991795</v>
       </c>
       <c r="D16" t="n">
-        <v>3284.664669925844</v>
+        <v>2203.222906343738</v>
       </c>
       <c r="E16" t="n">
-        <v>1.471356148297172</v>
+        <v>1.649619782724968</v>
       </c>
       <c r="F16" t="n">
-        <v>150.3874961108175</v>
+        <v>168.6078445018148</v>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
@@ -781,19 +777,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="C17" t="n">
-        <v>28.1198776197397</v>
+        <v>18.84569438787337</v>
       </c>
       <c r="D17" t="n">
-        <v>2874.136211731896</v>
+        <v>1926.220782603847</v>
       </c>
       <c r="E17" t="n">
-        <v>1.117933599431115</v>
+        <v>1.197438300476478</v>
       </c>
       <c r="F17" t="n">
-        <v>114.2641331476211</v>
+        <v>122.3903185943525</v>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
@@ -803,19 +799,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>709</v>
+        <v>715</v>
       </c>
       <c r="C18" t="n">
-        <v>24.94557856790399</v>
+        <v>16.70390417255084</v>
       </c>
       <c r="D18" t="n">
-        <v>2549.690708265595</v>
+        <v>1707.308136573331</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8808674264656814</v>
+        <v>0.9098113403050635</v>
       </c>
       <c r="F18" t="n">
-        <v>90.03356993143038</v>
+        <v>92.99193098832981</v>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
@@ -825,19 +821,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>704</v>
+        <v>710</v>
       </c>
       <c r="C19" t="n">
-        <v>22.40087129335742</v>
+        <v>14.98681227979262</v>
       </c>
       <c r="D19" t="n">
-        <v>2289.595859172166</v>
+        <v>1531.803959258446</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7149979519853774</v>
+        <v>0.7168790474779854</v>
       </c>
       <c r="F19" t="n">
-        <v>73.080030180243</v>
+        <v>73.27229718602949</v>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
@@ -847,19 +843,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="C20" t="n">
-        <v>20.33619982781623</v>
+        <v>13.59340462071711</v>
       </c>
       <c r="D20" t="n">
-        <v>2078.565530210997</v>
+        <v>1389.383587989043</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5949058962586045</v>
+        <v>0.5818889828002481</v>
       </c>
       <c r="F20" t="n">
-        <v>60.80540613055135</v>
+        <v>59.4749457764359</v>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
@@ -869,19 +865,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>694</v>
+        <v>700</v>
       </c>
       <c r="C21" t="n">
-        <v>18.64408496677406</v>
+        <v>12.45109714807233</v>
       </c>
       <c r="D21" t="n">
-        <v>1905.614258434587</v>
+        <v>1272.628198208982</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5054764721237098</v>
+        <v>0.4841540956509885</v>
       </c>
       <c r="F21" t="n">
-        <v>51.66481349440137</v>
+        <v>49.485450725859</v>
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
@@ -891,19 +887,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>689</v>
+        <v>695</v>
       </c>
       <c r="C22" t="n">
-        <v>17.24581119467182</v>
+        <v>11.50673664329774</v>
       </c>
       <c r="D22" t="n">
-        <v>1762.696521143552</v>
+        <v>1176.104992795146</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4373043857608065</v>
+        <v>0.4113734722970771</v>
       </c>
       <c r="F22" t="n">
-        <v>44.69693601305021</v>
+        <v>42.04653410173206</v>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
@@ -913,19 +909,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>684</v>
+        <v>690</v>
       </c>
       <c r="C23" t="n">
-        <v>16.08275756887666</v>
+        <v>10.72074153298188</v>
       </c>
       <c r="D23" t="n">
-        <v>1643.82066445286</v>
+        <v>1095.768334174087</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3843090095285168</v>
+        <v>0.3558927735357304</v>
       </c>
       <c r="F23" t="n">
-        <v>39.28027197406249</v>
+        <v>36.37584493592154</v>
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
@@ -935,19 +931,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>679</v>
+        <v>685</v>
       </c>
       <c r="C24" t="n">
-        <v>15.11061844756778</v>
+        <v>10.06319640179849</v>
       </c>
       <c r="D24" t="n">
-        <v>1544.458203165558</v>
+        <v>1028.56056400031</v>
       </c>
       <c r="E24" t="n">
-        <v>0.3424288756380297</v>
+        <v>0.3127633834678353</v>
       </c>
       <c r="F24" t="n">
-        <v>34.99969824630445</v>
+        <v>31.96758457788109</v>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
@@ -957,19 +953,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>674</v>
+        <v>680</v>
       </c>
       <c r="C25" t="n">
-        <v>14.29546880291869</v>
+        <v>9.511193367544465</v>
       </c>
       <c r="D25" t="n">
-        <v>1461.141655940555</v>
+        <v>972.1402647660894</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3088738995541092</v>
+        <v>0.2786799452685996</v>
       </c>
       <c r="F25" t="n">
-        <v>31.57003994014975</v>
+        <v>28.48391209276391</v>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
@@ -979,19 +975,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>669</v>
+        <v>675</v>
       </c>
       <c r="C26" t="n">
-        <v>13.61103418024193</v>
+        <v>9.046987625885581</v>
       </c>
       <c r="D26" t="n">
-        <v>1391.185507475051</v>
+        <v>924.6937377990205</v>
       </c>
       <c r="E26" t="n">
-        <v>0.2816800377360114</v>
+        <v>0.2513717958576227</v>
       </c>
       <c r="F26" t="n">
-        <v>28.79055191942801</v>
+        <v>25.69274272286677</v>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
@@ -1001,19 +997,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="C27" t="n">
-        <v>13.03676384864099</v>
+        <v>8.656695755452034</v>
       </c>
       <c r="D27" t="n">
-        <v>1332.489264991445</v>
+        <v>884.8019568628837</v>
       </c>
       <c r="E27" t="n">
-        <v>0.2594349137601603</v>
+        <v>0.2292405316381875</v>
       </c>
       <c r="F27" t="n">
-        <v>26.51687501307556</v>
+        <v>23.43070343647125</v>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
@@ -1023,19 +1019,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="C28" t="n">
-        <v>12.5564496808608</v>
+        <v>8.329362741955814</v>
       </c>
       <c r="D28" t="n">
-        <v>1283.396293773967</v>
+        <v>851.3452085758859</v>
       </c>
       <c r="E28" t="n">
-        <v>0.2411036700115915</v>
+        <v>0.2111367139606256</v>
       </c>
       <c r="F28" t="n">
-        <v>24.64323629471711</v>
+        <v>21.58030996530101</v>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
@@ -1045,19 +1041,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="C29" t="n">
-        <v>12.15722230072605</v>
+        <v>8.056283855616867</v>
       </c>
       <c r="D29" t="n">
-        <v>1242.591213272668</v>
+        <v>823.4337814174966</v>
       </c>
       <c r="E29" t="n">
-        <v>0.2259154846316029</v>
+        <v>0.1962181414686358</v>
       </c>
       <c r="F29" t="n">
-        <v>23.09084996567852</v>
+        <v>20.05548080329656</v>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
@@ -1067,19 +1063,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="C30" t="n">
-        <v>11.82881223557416</v>
+        <v>7.830505509285657</v>
       </c>
       <c r="D30" t="n">
-        <v>1209.024379401113</v>
+        <v>800.3569483746691</v>
       </c>
       <c r="E30" t="n">
-        <v>0.2132878669706486</v>
+        <v>0.1838574938376844</v>
       </c>
       <c r="F30" t="n">
-        <v>21.80017958374996</v>
+        <v>18.79209746155554</v>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
@@ -1089,19 +1085,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="C31" t="n">
-        <v>11.56299999932809</v>
+        <v>7.646453686576706</v>
       </c>
       <c r="D31" t="n">
-        <v>1181.8556774584</v>
+        <v>781.5449885348542</v>
       </c>
       <c r="E31" t="n">
-        <v>0.2027750849528321</v>
+        <v>0.1735807209105455</v>
       </c>
       <c r="F31" t="n">
-        <v>20.72566681765457</v>
+        <v>17.74170721416336</v>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
@@ -1111,19 +1107,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="C32" t="n">
-        <v>11.35320275832528</v>
+        <v>7.499654565496316</v>
       </c>
       <c r="D32" t="n">
-        <v>1160.4122751918</v>
+        <v>766.5406319920154</v>
       </c>
       <c r="E32" t="n">
-        <v>0.1940323643455853</v>
+        <v>0.165025071180694</v>
       </c>
       <c r="F32" t="n">
-        <v>19.83207224992062</v>
+        <v>16.86723318422668</v>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
@@ -1133,19 +1129,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="C33" t="n">
-        <v>11.19416104952676</v>
+        <v>7.386522652221226</v>
       </c>
       <c r="D33" t="n">
-        <v>1144.15660222569</v>
+        <v>754.9774049736236</v>
       </c>
       <c r="E33" t="n">
-        <v>0.186790612321898</v>
+        <v>0.1579099559738163</v>
       </c>
       <c r="F33" t="n">
-        <v>19.09189186901272</v>
+        <v>16.13999636821805</v>
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
@@ -1155,19 +1151,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="C34" t="n">
-        <v>11.08169973035397</v>
+        <v>7.304198975868453</v>
       </c>
       <c r="D34" t="n">
-        <v>1132.661916714442</v>
+        <v>746.5630917078252</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1808382980063571</v>
+        <v>0.1520163786467008</v>
       </c>
       <c r="F34" t="n">
-        <v>18.48350507767417</v>
+        <v>15.53761309181951</v>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
@@ -1177,19 +1173,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="C35" t="n">
-        <v>11.01254469656676</v>
+        <v>7.250426865130545</v>
       </c>
       <c r="D35" t="n">
-        <v>1125.593572053802</v>
+        <v>741.0670375377819</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1760082855914242</v>
+        <v>0.1471721883762812</v>
       </c>
       <c r="F35" t="n">
-        <v>17.98982890409337</v>
+        <v>15.04248779785456</v>
       </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
@@ -1199,19 +1195,19 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="C36" t="n">
-        <v>10.9841820284093</v>
+        <v>7.223456288081429</v>
       </c>
       <c r="D36" t="n">
-        <v>1122.694620190815</v>
+        <v>738.3103714812499</v>
       </c>
       <c r="E36" t="n">
-        <v>0.1721681503613763</v>
+        <v>0.1432413645141517</v>
       </c>
       <c r="F36" t="n">
-        <v>17.59732820149856</v>
+        <v>14.64071779882172</v>
       </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
@@ -1221,19 +1217,19 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="C37" t="n">
-        <v>10.99474984064235</v>
+        <v>7.22197017729349</v>
       </c>
       <c r="D37" t="n">
-        <v>1123.774757602099</v>
+        <v>738.1584759115742</v>
       </c>
       <c r="E37" t="n">
-        <v>0.1692129813919124</v>
+        <v>0.1401161354465394</v>
       </c>
       <c r="F37" t="n">
-        <v>17.29528001118353</v>
+        <v>14.32128774458578</v>
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
@@ -1243,19 +1239,19 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="C38" t="n">
-        <v>11.04295569570783</v>
+        <v>7.24502790579647</v>
       </c>
       <c r="D38" t="n">
-        <v>1128.701884083046</v>
+        <v>740.5152092283713</v>
       </c>
       <c r="E38" t="n">
-        <v>0.1670599853093067</v>
+        <v>0.1377111211931848</v>
       </c>
       <c r="F38" t="n">
-        <v>17.07522201205517</v>
+        <v>14.07547093667601</v>
       </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
@@ -1265,19 +1261,19 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="C39" t="n">
-        <v>11.12801430900256</v>
+        <v>7.292022340139149</v>
       </c>
       <c r="D39" t="n">
-        <v>1137.395735596057</v>
+        <v>745.3185162455873</v>
       </c>
       <c r="E39" t="n">
-        <v>0.1656444127326324</v>
+        <v>0.1359589417680527</v>
       </c>
       <c r="F39" t="n">
-        <v>16.93053616178327</v>
+        <v>13.89638045828471</v>
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
@@ -1287,19 +1283,19 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="C40" t="n">
-        <v>11.24960164591431</v>
+        <v>7.36264782002131</v>
       </c>
       <c r="D40" t="n">
-        <v>1149.823192522854</v>
+        <v>752.5371553856726</v>
       </c>
       <c r="E40" t="n">
-        <v>0.1649164694738224</v>
+        <v>0.1348069019832762</v>
       </c>
       <c r="F40" t="n">
-        <v>16.85613299017189</v>
+        <v>13.77863032766332</v>
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
@@ -1309,19 +1305,19 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="C41" t="n">
-        <v>11.40782252898301</v>
+        <v>7.456877098973436</v>
       </c>
       <c r="D41" t="n">
-        <v>1165.994968788364</v>
+        <v>762.1683417835669</v>
       </c>
       <c r="E41" t="n">
-        <v>0.1648389711751971</v>
+        <v>0.1342144776815993</v>
       </c>
       <c r="F41" t="n">
-        <v>16.84821187936769</v>
+        <v>13.71807856562563</v>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
@@ -1331,19 +1327,19 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="C42" t="n">
-        <v>11.60318964230404</v>
+        <v>7.574945796220457</v>
       </c>
       <c r="D42" t="n">
-        <v>1185.963465898157</v>
+        <v>774.2361581097467</v>
       </c>
       <c r="E42" t="n">
-        <v>0.1653855674572244</v>
+        <v>0.1341514070028224</v>
       </c>
       <c r="F42" t="n">
-        <v>16.90407955377997</v>
+        <v>13.71163210365227</v>
       </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
@@ -1353,19 +1349,19 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="C43" t="n">
-        <v>11.83661241074259</v>
+        <v>7.717343304487952</v>
       </c>
       <c r="D43" t="n">
-        <v>1209.821636281551</v>
+        <v>788.7906252559586</v>
       </c>
       <c r="E43" t="n">
-        <v>0.1665394093173921</v>
+        <v>0.1345962451365095</v>
       </c>
       <c r="F43" t="n">
-        <v>17.02201387475269</v>
+        <v>13.75709906498398</v>
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
@@ -1375,19 +1371,19 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="C44" t="n">
-        <v>12.10939469471467</v>
+        <v>7.8848094064566</v>
       </c>
       <c r="D44" t="n">
-        <v>1237.702747674892</v>
+        <v>805.9073565026052</v>
       </c>
       <c r="E44" t="n">
-        <v>0.1682921677076334</v>
+        <v>0.1355352798071138</v>
       </c>
       <c r="F44" t="n">
-        <v>17.20116352924028</v>
+        <v>13.85307791622055</v>
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
@@ -1397,19 +1393,19 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="C45" t="n">
-        <v>12.42324061411294</v>
+        <v>8.078336098632942</v>
       </c>
       <c r="D45" t="n">
-        <v>1269.780978385741</v>
+        <v>825.6877439368044</v>
       </c>
       <c r="E45" t="n">
-        <v>0.1706433360914655</v>
+        <v>0.1369617325598246</v>
       </c>
       <c r="F45" t="n">
-        <v>17.4414767440854</v>
+        <v>13.99887583064721</v>
       </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
@@ -1419,19 +1415,19 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="C46" t="n">
-        <v>12.78026812459635</v>
+        <v>8.299174323766545</v>
       </c>
       <c r="D46" t="n">
-        <v>1306.272804927139</v>
+        <v>848.2596465735899</v>
       </c>
       <c r="E46" t="n">
-        <v>0.1735997681656669</v>
+        <v>0.1388751911584978</v>
       </c>
       <c r="F46" t="n">
-        <v>17.74365403649378</v>
+        <v>14.19445067355605</v>
       </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
@@ -1441,35 +1437,39 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>564</v>
-      </c>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="n">
-        <v>10072.10922385923</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1029471.5446589</v>
-      </c>
+        <v>570</v>
+      </c>
+      <c r="C47" t="n">
+        <v>8.548845485222596</v>
+      </c>
+      <c r="D47" t="n">
+        <v>873.7785672413763</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.1412812333682666</v>
+      </c>
+      <c r="F47" t="n">
+        <v>14.4403725490196</v>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="n">
-        <v>308.8502311065253</v>
+        <v>5708.884026665948</v>
       </c>
       <c r="H48" t="n">
-        <v>31567.62078515925</v>
+        <v>583505.7510385526</v>
       </c>
     </row>
     <row r="49">
@@ -1477,17 +1477,17 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="n">
-        <v>101.5576925815187</v>
+        <v>174.9333041362775</v>
       </c>
       <c r="H49" t="n">
-        <v>10380.22447237025</v>
+        <v>17879.95491499007</v>
       </c>
     </row>
     <row r="50">
@@ -1495,17 +1495,17 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="n">
-        <v>53.11695574734993</v>
+        <v>57.4811729430953</v>
       </c>
       <c r="H50" t="n">
-        <v>5429.090696442096</v>
+        <v>5875.157882358636</v>
       </c>
     </row>
     <row r="51">
@@ -1513,17 +1513,17 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="n">
-        <v>34.16223969090382</v>
+        <v>30.04197774785987</v>
       </c>
       <c r="H51" t="n">
-        <v>3491.726795445428</v>
+        <v>3070.594306447311</v>
       </c>
     </row>
     <row r="52">
@@ -1531,17 +1531,17 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="n">
-        <v>24.72274782460032</v>
+        <v>19.30716044165763</v>
       </c>
       <c r="H52" t="n">
-        <v>2526.91515009721</v>
+        <v>1973.38728573028</v>
       </c>
     </row>
     <row r="53">
@@ -1549,17 +1549,17 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="n">
-        <v>19.31681050941173</v>
+        <v>13.96174084507914</v>
       </c>
       <c r="H53" t="n">
-        <v>1974.373620363481</v>
+        <v>1427.031279591667</v>
       </c>
     </row>
     <row r="54">
@@ -1567,17 +1567,17 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="n">
-        <v>15.93075752695895</v>
+        <v>10.90041180723078</v>
       </c>
       <c r="H54" t="n">
-        <v>1628.284721140157</v>
+        <v>1114.13245539729</v>
       </c>
     </row>
     <row r="55">
@@ -1585,17 +1585,17 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="n">
-        <v>13.67836644117319</v>
+        <v>8.982605007733147</v>
       </c>
       <c r="H55" t="n">
-        <v>1398.067546293899</v>
+        <v>918.1131823378502</v>
       </c>
     </row>
     <row r="56">
@@ -1603,17 +1603,17 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="n">
-        <v>12.11813022071286</v>
+        <v>7.706409435137873</v>
       </c>
       <c r="H56" t="n">
-        <v>1238.595606880734</v>
+        <v>787.6730731009184</v>
       </c>
     </row>
     <row r="57">
@@ -1621,17 +1621,17 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="n">
-        <v>11.00931406804404</v>
+        <v>6.82179787468799</v>
       </c>
       <c r="H57" t="n">
-        <v>1125.263369108065</v>
+        <v>697.2568147662491</v>
       </c>
     </row>
     <row r="58">
@@ -1639,17 +1639,17 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="n">
-        <v>10.21140205467838</v>
+        <v>6.192444632748099</v>
       </c>
       <c r="H58" t="n">
-        <v>1043.708682334453</v>
+        <v>632.9305411212841</v>
       </c>
     </row>
     <row r="59">
@@ -1657,17 +1657,17 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="n">
-        <v>9.637975776682092</v>
+        <v>5.738771917632127</v>
       </c>
       <c r="H59" t="n">
-        <v>985.0987106754438</v>
+        <v>586.5605961157548</v>
       </c>
     </row>
     <row r="60">
@@ -1675,17 +1675,17 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="n">
-        <v>9.2337269894507</v>
+        <v>5.411828645730101</v>
       </c>
       <c r="H60" t="n">
-        <v>943.7803915261873</v>
+        <v>553.14368336589</v>
       </c>
     </row>
     <row r="61">
@@ -1693,17 +1693,17 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="n">
-        <v>8.962214293211719</v>
+        <v>5.18027209708977</v>
       </c>
       <c r="H61" t="n">
-        <v>916.0290448539807</v>
+        <v>529.4762595416963</v>
       </c>
     </row>
     <row r="62">
@@ -1711,17 +1711,17 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="n">
-        <v>8.798981249319764</v>
+        <v>5.023434330908414</v>
       </c>
       <c r="H62" t="n">
-        <v>899.3449750032729</v>
+        <v>513.445851826389</v>
       </c>
     </row>
     <row r="63">
@@ -1729,17 +1729,17 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="n">
-        <v>8.727514491113757</v>
+        <v>4.927424657045564</v>
       </c>
       <c r="H63" t="n">
-        <v>892.040348700391</v>
+        <v>503.6326910417887</v>
       </c>
     </row>
     <row r="64">
@@ -1747,17 +1747,17 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="n">
-        <v>8.73678469318563</v>
+        <v>4.882840107236261</v>
       </c>
       <c r="H64" t="n">
-        <v>892.9878572146577</v>
+        <v>499.0756986244132</v>
       </c>
     </row>
     <row r="65">
@@ -1765,17 +1765,17 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="n">
-        <v>8.819709959796208</v>
+        <v>4.883371932046435</v>
       </c>
       <c r="H65" t="n">
-        <v>901.4636590960171</v>
+        <v>499.1300565048382</v>
       </c>
     </row>
     <row r="66">
@@ -1783,17 +1783,17 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="n">
-        <v>8.972179013789543</v>
+        <v>4.924934084756948</v>
       </c>
       <c r="H66" t="n">
-        <v>917.0475401916846</v>
+        <v>503.3781293363843</v>
       </c>
     </row>
     <row r="67">
@@ -1801,17 +1801,17 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="n">
-        <v>9.192427588157278</v>
+        <v>5.005108305860618</v>
       </c>
       <c r="H67" t="n">
-        <v>939.5591745498747</v>
+        <v>511.5727465120898</v>
       </c>
     </row>
     <row r="68">
@@ -1819,17 +1819,17 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="n">
-        <v>9.480646732892604</v>
+        <v>5.122788762326292</v>
       </c>
       <c r="H68" t="n">
-        <v>969.0180894143081</v>
+        <v>523.6008806994058</v>
       </c>
     </row>
     <row r="69">
@@ -1837,17 +1837,17 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="n">
-        <v>9.838750252834243</v>
+        <v>5.277957488001338</v>
       </c>
       <c r="H69" t="n">
-        <v>1005.619895017132</v>
+        <v>539.4606955756225</v>
       </c>
     </row>
     <row r="70">
@@ -1855,17 +1855,17 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="n">
-        <v>10.27025711654046</v>
+        <v>5.471549316022671</v>
       </c>
       <c r="H70" t="n">
-        <v>1049.724265575214</v>
+        <v>559.2477405526923</v>
       </c>
     </row>
     <row r="71">
@@ -1873,17 +1873,17 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="n">
-        <v>10.78026222907702</v>
+        <v>5.70538117721574</v>
       </c>
       <c r="H71" t="n">
-        <v>1101.851951973135</v>
+        <v>583.1477243577388</v>
       </c>
     </row>
     <row r="72">
@@ -1891,17 +1891,17 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="n">
-        <v>11.37548020093855</v>
+        <v>5.982130546558769</v>
       </c>
       <c r="H72" t="n">
-        <v>1162.68925539013</v>
+        <v>611.4343120434687</v>
       </c>
     </row>
     <row r="73">
@@ -1909,17 +1909,17 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="n">
-        <v>12.06435433648972</v>
+        <v>6.305354145667772</v>
       </c>
       <c r="H73" t="n">
-        <v>1233.099167022293</v>
+        <v>644.4710365715075</v>
       </c>
     </row>
     <row r="74">
@@ -1927,17 +1927,17 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="n">
-        <v>12.85722855889695</v>
+        <v>6.679542260202461</v>
       </c>
       <c r="H74" t="n">
-        <v>1314.138940551381</v>
+        <v>682.7168506012551</v>
       </c>
     </row>
     <row r="75">
@@ -1945,17 +1945,17 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="n">
-        <v>13.76658432722391</v>
+        <v>7.110207082542969</v>
       </c>
       <c r="H75" t="n">
-        <v>1407.084307470798</v>
+        <v>726.7351560059356</v>
       </c>
     </row>
     <row r="76">
@@ -1963,17 +1963,17 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="n">
-        <v>14.80734839235713</v>
+        <v>7.604005872549143</v>
       </c>
       <c r="H76" t="n">
-        <v>1513.460932857276</v>
+        <v>777.2063921492199</v>
       </c>
     </row>
     <row r="77">
@@ -1981,17 +1981,17 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="n">
-        <v>15.99728090539817</v>
+        <v>8.168901782247708</v>
       </c>
       <c r="H77" t="n">
-        <v>1635.084083978233</v>
+        <v>834.944473796636</v>
       </c>
     </row>
     <row r="78">
@@ -1999,17 +1999,17 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="n">
-        <v>17.35745726439686</v>
+        <v>8.814367148343274</v>
       </c>
       <c r="H78" t="n">
-        <v>1774.107879906687</v>
+        <v>900.9175696685669</v>
       </c>
     </row>
     <row r="79">
@@ -2017,17 +2017,17 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="n">
-        <v>18.91286145349529</v>
+        <v>9.551636098894859</v>
       </c>
       <c r="H79" t="n">
-        <v>1933.085936789448</v>
+        <v>976.2739214002818</v>
       </c>
     </row>
     <row r="80">
@@ -2035,17 +2035,17 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="n">
-        <v>20.69311378350287</v>
+        <v>10.39401560274747</v>
       </c>
       <c r="H80" t="n">
-        <v>2115.045750302401</v>
+        <v>1062.373635943276</v>
       </c>
     </row>
     <row r="81">
@@ -2053,17 +2053,17 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="n">
-        <v>22.73336220632962</v>
+        <v>11.35726676503352</v>
       </c>
       <c r="H81" t="n">
-        <v>2323.579797010301</v>
+        <v>1160.827657826207</v>
       </c>
     </row>
     <row r="82">
@@ -2071,17 +2071,17 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="n">
-        <v>25.07537412885463</v>
+        <v>12.46007140573475</v>
       </c>
       <c r="H82" t="n">
-        <v>2562.957128798962</v>
+        <v>1273.545458208111</v>
       </c>
     </row>
     <row r="83">
@@ -2089,17 +2089,17 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="n">
-        <v>27.76887536636819</v>
+        <v>13.72460294624095</v>
       </c>
       <c r="H83" t="n">
-        <v>2838.260227474184</v>
+        <v>1402.793385265043</v>
       </c>
     </row>
     <row r="84">
@@ -2107,17 +2107,17 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="n">
-        <v>30.87319515012775</v>
+        <v>15.17722561101071</v>
       </c>
       <c r="H84" t="n">
-        <v>3155.55314118999</v>
+        <v>1551.266129679352</v>
       </c>
     </row>
     <row r="85">
@@ -2125,17 +2125,17 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="n">
-        <v>34.45929170879389</v>
+        <v>16.84935223085897</v>
       </c>
       <c r="H85" t="n">
-        <v>3522.088519380761</v>
+        <v>1722.174400821082</v>
       </c>
     </row>
     <row r="86">
@@ -2143,17 +2143,17 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="n">
-        <v>38.61225288256036</v>
+        <v>18.7784989000988</v>
       </c>
       <c r="H86" t="n">
-        <v>3946.563200844518</v>
+        <v>1919.352723386467</v>
       </c>
     </row>
     <row r="87">
@@ -2161,17 +2161,17 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="n">
-        <v>43.43439181543613</v>
+        <v>21.0095848964665</v>
       </c>
       <c r="H87" t="n">
-        <v>4439.434624838601</v>
+        <v>2147.392302376202</v>
       </c>
     </row>
     <row r="88">
@@ -2179,17 +2179,17 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="n">
-        <v>49.04909073537122</v>
+        <v>23.5965392799248</v>
       </c>
       <c r="H88" t="n">
-        <v>5013.313704327524</v>
+        <v>2411.805233760251</v>
       </c>
     </row>
     <row r="89">
@@ -2197,17 +2197,17 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="n">
-        <v>55.60558846215289</v>
+        <v>26.60429231051422</v>
       </c>
       <c r="H89" t="n">
-        <v>5683.454157764373</v>
+        <v>2719.228047545719</v>
       </c>
     </row>
     <row r="90">
@@ -2215,17 +2215,17 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="n">
-        <v>63.28496261900497</v>
+        <v>30.11125141000927</v>
       </c>
       <c r="H90" t="n">
-        <v>6468.363951687259</v>
+        <v>3077.674776127702</v>
       </c>
     </row>
     <row r="91">
@@ -2233,17 +2233,17 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="n">
-        <v>72.30762961952999</v>
+        <v>34.21238935300286</v>
       </c>
       <c r="H91" t="n">
-        <v>7390.571875323572</v>
+        <v>3496.852598686613</v>
       </c>
     </row>
     <row r="92">
@@ -2251,17 +2251,17 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="n">
-        <v>82.94277978502485</v>
+        <v>39.02310872728445</v>
       </c>
       <c r="H92" t="n">
-        <v>8477.59190511196</v>
+        <v>3988.556828167215</v>
       </c>
     </row>
     <row r="93">
@@ -2269,17 +2269,17 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="n">
-        <v>95.5202887148193</v>
+        <v>44.68409414574042</v>
       </c>
       <c r="H93" t="n">
-        <v>9763.140667355759</v>
+        <v>4567.166856464385</v>
       </c>
     </row>
     <row r="94">
@@ -2287,17 +2287,17 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="n">
-        <v>110.4458091320336</v>
+        <v>51.36742583679788</v>
       </c>
       <c r="H94" t="n">
-        <v>11288.67997766719</v>
+        <v>5250.271025267713</v>
       </c>
     </row>
     <row r="95">
@@ -2305,17 +2305,17 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="n">
-        <v>128.2199632046122</v>
+        <v>59.28430995449706</v>
       </c>
       <c r="H95" t="n">
-        <v>13105.37849050278</v>
+        <v>6059.456742021731</v>
       </c>
     </row>
     <row r="96">
@@ -2323,17 +2323,17 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="n">
-        <v>149.4628419577423</v>
+        <v>68.69488881260774</v>
       </c>
       <c r="H96" t="n">
-        <v>15276.61578717372</v>
+        <v>7021.313185183054</v>
       </c>
     </row>
     <row r="97">
@@ -2341,17 +2341,17 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="n">
-        <v>174.945400667715</v>
+        <v>79.92073719251742</v>
       </c>
       <c r="H97" t="n">
-        <v>17881.19130298262</v>
+        <v>8168.708553413996</v>
       </c>
     </row>
     <row r="98">
@@ -2359,17 +2359,17 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="n">
-        <v>205.6298511241582</v>
+        <v>93.36084107950637</v>
       </c>
       <c r="H98" t="n">
-        <v>21017.4528254029</v>
+        <v>9542.42325421756</v>
       </c>
     </row>
     <row r="99">
@@ -2377,17 +2377,17 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="n">
-        <v>242.721840330579</v>
+        <v>109.5121093187799</v>
       </c>
       <c r="H99" t="n">
-        <v>24808.62968559329</v>
+        <v>11193.24640286827</v>
       </c>
     </row>
     <row r="100">
@@ -2395,17 +2395,17 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr"/>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="n">
-        <v>287.7381356215681</v>
+        <v>128.9958096772599</v>
       </c>
       <c r="H100" t="n">
-        <v>29409.7508627005</v>
+        <v>13184.67785559731</v>
       </c>
     </row>
     <row r="101">
@@ -2413,17 +2413,17 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="n">
-        <v>342.5947987990214</v>
+        <v>152.5917803161364</v>
       </c>
       <c r="H101" t="n">
-        <v>35016.65727336069</v>
+        <v>15596.42496848483</v>
       </c>
     </row>
     <row r="102">
@@ -2431,17 +2431,17 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="n">
-        <v>409.7225532283017</v>
+        <v>181.282889662247</v>
       </c>
       <c r="H102" t="n">
-        <v>41877.79345704037</v>
+        <v>18528.94684647938</v>
       </c>
     </row>
     <row r="103">
@@ -2449,17 +2449,17 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="n">
-        <v>492.2184055842644</v>
+        <v>216.313063368537</v>
       </c>
       <c r="H103" t="n">
-        <v>50309.70485367878</v>
+        <v>22109.38528629071</v>
       </c>
     </row>
     <row r="104">
@@ -2467,17 +2467,17 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="n">
-        <v>594.0458289520142</v>
+        <v>259.2633522786238</v>
       </c>
       <c r="H104" t="n">
-        <v>60717.49854347626</v>
+        <v>26499.3396925706</v>
       </c>
     </row>
     <row r="105">
@@ -2485,17 +2485,17 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="n">
-        <v>720.300302207329</v>
+        <v>312.1521008368625</v>
       </c>
       <c r="H105" t="n">
-        <v>73621.9840602093</v>
+        <v>31905.10530364526</v>
       </c>
     </row>
     <row r="106">
@@ -2503,17 +2503,17 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="C106" t="inlineStr"/>
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr"/>
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="n">
-        <v>877.5632397050375</v>
+        <v>377.5674620788584</v>
       </c>
       <c r="H106" t="n">
-        <v>89695.84858898666</v>
+        <v>38591.21756528476</v>
       </c>
     </row>
     <row r="107">
@@ -2521,17 +2521,17 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="n">
-        <v>1074.376063262678</v>
+        <v>458.8435361632257</v>
       </c>
       <c r="H107" t="n">
-        <v>109812.1119230464</v>
+        <v>46898.45527208409</v>
       </c>
     </row>
     <row r="108">
@@ -2539,17 +2539,17 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="n">
-        <v>1321.878414815315</v>
+        <v>560.2956316722057</v>
       </c>
       <c r="H108" t="n">
-        <v>135109.3582590998</v>
+        <v>57267.88665445088</v>
       </c>
     </row>
     <row r="109">
@@ -2557,17 +2557,17 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="n">
-        <v>1634.671804677149</v>
+        <v>687.5360617569069</v>
       </c>
       <c r="H109" t="n">
-        <v>167080.0097942679</v>
+        <v>70273.1469421436</v>
       </c>
     </row>
     <row r="110">
@@ -2575,17 +2575,17 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="n">
-        <v>2031.994556087703</v>
+        <v>847.9002119474615</v>
       </c>
       <c r="H110" t="n">
-        <v>207690.4179552332</v>
+        <v>86663.98680848553</v>
       </c>
     </row>
     <row r="111">
@@ -2593,53 +2593,17 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="C111" t="inlineStr"/>
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="n">
-        <v>2539.328996501562</v>
+        <v>1051.024401376902</v>
       </c>
       <c r="H111" t="n">
-        <v>259545.1346211626</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>239</v>
-      </c>
-      <c r="C112" t="inlineStr"/>
-      <c r="D112" t="inlineStr"/>
-      <c r="E112" t="inlineStr"/>
-      <c r="F112" t="inlineStr"/>
-      <c r="G112" t="n">
-        <v>3190.612263015986</v>
-      </c>
-      <c r="H112" t="n">
-        <v>326112.8788232253</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>234</v>
-      </c>
-      <c r="C113" t="inlineStr"/>
-      <c r="D113" t="inlineStr"/>
-      <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr"/>
-      <c r="G113" t="n">
-        <v>4031.294965243907</v>
-      </c>
-      <c r="H113" t="n">
-        <v>412039.1630597446</v>
+        <v>107425.3356383973</v>
       </c>
     </row>
   </sheetData>
